--- a/Dresses dataset/Attribute DataSet.xlsx
+++ b/Dresses dataset/Attribute DataSet.xlsx
@@ -1,16 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E58B32B-8BCC-4FC5-88BF-D1438A300BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23A7845-FB07-497A-A817-9C1043319E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26280" yWindow="1545" windowWidth="21705" windowHeight="13335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -23124,28 +23122,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>